--- a/kadastro_veri.xlsx
+++ b/kadastro_veri.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tk44142\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C240FB-CC42-4C6C-A68C-D87E64A0BD8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0E2C9C-AEE2-4993-AAA4-32F6FA745B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="333">
   <si>
     <t>İLÇE</t>
   </si>
@@ -1481,10 +1481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F139"/>
+  <dimension ref="A1:F138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="G98" sqref="G98"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I84" sqref="I84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3380,19 +3380,20 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="B95" t="s">
-        <v>1</v>
+        <v>227</v>
       </c>
       <c r="C95" t="s">
-        <v>2</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>3</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="D95" s="7">
+        <v>560</v>
+      </c>
+      <c r="E95" s="8"/>
       <c r="F95" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -3400,15 +3401,14 @@
         <v>181</v>
       </c>
       <c r="B96" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C96" t="s">
         <v>228</v>
       </c>
       <c r="D96" s="7">
-        <v>560</v>
-      </c>
-      <c r="E96" s="8"/>
+        <v>937</v>
+      </c>
       <c r="F96" s="7" t="s">
         <v>13</v>
       </c>
@@ -3418,13 +3418,13 @@
         <v>181</v>
       </c>
       <c r="B97" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C97" t="s">
         <v>228</v>
       </c>
       <c r="D97" s="7">
-        <v>937</v>
+        <v>638</v>
       </c>
       <c r="F97" s="7" t="s">
         <v>13</v>
@@ -3432,16 +3432,16 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="B98" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C98" t="s">
         <v>228</v>
       </c>
       <c r="D98" s="7">
-        <v>638</v>
+        <v>3006</v>
       </c>
       <c r="F98" s="7" t="s">
         <v>13</v>
@@ -3452,13 +3452,13 @@
         <v>207</v>
       </c>
       <c r="B99" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C99" t="s">
         <v>228</v>
       </c>
       <c r="D99" s="7">
-        <v>3006</v>
+        <v>871</v>
       </c>
       <c r="F99" s="7" t="s">
         <v>13</v>
@@ -3469,13 +3469,13 @@
         <v>207</v>
       </c>
       <c r="B100" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C100" t="s">
         <v>228</v>
       </c>
       <c r="D100" s="7">
-        <v>871</v>
+        <v>1128</v>
       </c>
       <c r="F100" s="7" t="s">
         <v>13</v>
@@ -3486,13 +3486,13 @@
         <v>207</v>
       </c>
       <c r="B101" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C101" t="s">
         <v>228</v>
       </c>
       <c r="D101" s="7">
-        <v>1128</v>
+        <v>204</v>
       </c>
       <c r="F101" s="7" t="s">
         <v>13</v>
@@ -3503,13 +3503,13 @@
         <v>207</v>
       </c>
       <c r="B102" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C102" t="s">
         <v>228</v>
       </c>
       <c r="D102" s="7">
-        <v>204</v>
+        <v>3396</v>
       </c>
       <c r="F102" s="7" t="s">
         <v>13</v>
@@ -3520,13 +3520,13 @@
         <v>207</v>
       </c>
       <c r="B103" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C103" t="s">
         <v>228</v>
       </c>
       <c r="D103" s="7">
-        <v>3396</v>
+        <v>402</v>
       </c>
       <c r="F103" s="7" t="s">
         <v>13</v>
@@ -3537,13 +3537,13 @@
         <v>207</v>
       </c>
       <c r="B104" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C104" t="s">
         <v>228</v>
       </c>
       <c r="D104" s="7">
-        <v>402</v>
+        <v>1775</v>
       </c>
       <c r="F104" s="7" t="s">
         <v>13</v>
@@ -3551,16 +3551,16 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>207</v>
+        <v>164</v>
       </c>
       <c r="B105" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C105" t="s">
         <v>228</v>
       </c>
       <c r="D105" s="7">
-        <v>1775</v>
+        <v>1850</v>
       </c>
       <c r="F105" s="7" t="s">
         <v>13</v>
@@ -3571,13 +3571,13 @@
         <v>164</v>
       </c>
       <c r="B106" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C106" t="s">
         <v>228</v>
       </c>
       <c r="D106" s="7">
-        <v>1850</v>
+        <v>1439</v>
       </c>
       <c r="F106" s="7" t="s">
         <v>13</v>
@@ -3588,13 +3588,13 @@
         <v>164</v>
       </c>
       <c r="B107" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C107" t="s">
         <v>228</v>
       </c>
       <c r="D107" s="7">
-        <v>1439</v>
+        <v>1277</v>
       </c>
       <c r="F107" s="7" t="s">
         <v>13</v>
@@ -3605,13 +3605,13 @@
         <v>164</v>
       </c>
       <c r="B108" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C108" t="s">
         <v>228</v>
       </c>
       <c r="D108" s="7">
-        <v>1277</v>
+        <v>422</v>
       </c>
       <c r="F108" s="7" t="s">
         <v>13</v>
@@ -3622,13 +3622,13 @@
         <v>164</v>
       </c>
       <c r="B109" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C109" t="s">
         <v>228</v>
       </c>
       <c r="D109" s="7">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="F109" s="7" t="s">
         <v>13</v>
@@ -3639,13 +3639,13 @@
         <v>164</v>
       </c>
       <c r="B110" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C110" t="s">
         <v>228</v>
       </c>
       <c r="D110" s="7">
-        <v>415</v>
+        <v>980</v>
       </c>
       <c r="F110" s="7" t="s">
         <v>13</v>
@@ -3656,13 +3656,13 @@
         <v>164</v>
       </c>
       <c r="B111" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C111" t="s">
         <v>228</v>
       </c>
       <c r="D111" s="7">
-        <v>980</v>
+        <v>808</v>
       </c>
       <c r="F111" s="7" t="s">
         <v>13</v>
@@ -3673,13 +3673,13 @@
         <v>164</v>
       </c>
       <c r="B112" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C112" t="s">
         <v>228</v>
       </c>
       <c r="D112" s="7">
-        <v>808</v>
+        <v>1757</v>
       </c>
       <c r="F112" s="7" t="s">
         <v>13</v>
@@ -3690,13 +3690,13 @@
         <v>164</v>
       </c>
       <c r="B113" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C113" t="s">
         <v>228</v>
       </c>
       <c r="D113" s="7">
-        <v>1757</v>
+        <v>1021</v>
       </c>
       <c r="F113" s="7" t="s">
         <v>13</v>
@@ -3707,13 +3707,13 @@
         <v>164</v>
       </c>
       <c r="B114" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C114" t="s">
         <v>228</v>
       </c>
       <c r="D114" s="7">
-        <v>1021</v>
+        <v>564</v>
       </c>
       <c r="F114" s="7" t="s">
         <v>13</v>
@@ -3724,13 +3724,13 @@
         <v>164</v>
       </c>
       <c r="B115" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C115" t="s">
         <v>228</v>
       </c>
       <c r="D115" s="7">
-        <v>564</v>
+        <v>2418</v>
       </c>
       <c r="F115" s="7" t="s">
         <v>13</v>
@@ -3738,16 +3738,16 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="B116" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C116" t="s">
         <v>228</v>
       </c>
       <c r="D116" s="7">
-        <v>2418</v>
+        <v>2706</v>
       </c>
       <c r="F116" s="7" t="s">
         <v>13</v>
@@ -3755,16 +3755,16 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="B117" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C117" t="s">
         <v>228</v>
       </c>
       <c r="D117" s="7">
-        <v>2706</v>
+        <v>4070</v>
       </c>
       <c r="F117" s="7" t="s">
         <v>13</v>
@@ -3775,13 +3775,13 @@
         <v>207</v>
       </c>
       <c r="B118" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C118" t="s">
         <v>228</v>
       </c>
       <c r="D118" s="7">
-        <v>4070</v>
+        <v>2452</v>
       </c>
       <c r="F118" s="7" t="s">
         <v>13</v>
@@ -3792,13 +3792,13 @@
         <v>207</v>
       </c>
       <c r="B119" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C119" t="s">
         <v>228</v>
       </c>
       <c r="D119" s="7">
-        <v>2452</v>
+        <v>7117</v>
       </c>
       <c r="F119" s="7" t="s">
         <v>13</v>
@@ -3809,13 +3809,13 @@
         <v>207</v>
       </c>
       <c r="B120" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C120" t="s">
         <v>228</v>
       </c>
       <c r="D120" s="7">
-        <v>7117</v>
+        <v>640</v>
       </c>
       <c r="F120" s="7" t="s">
         <v>13</v>
@@ -3826,13 +3826,13 @@
         <v>207</v>
       </c>
       <c r="B121" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C121" t="s">
         <v>228</v>
       </c>
       <c r="D121" s="7">
-        <v>640</v>
+        <v>1142</v>
       </c>
       <c r="F121" s="7" t="s">
         <v>13</v>
@@ -3840,16 +3840,16 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="B122" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C122" t="s">
         <v>228</v>
       </c>
       <c r="D122" s="7">
-        <v>1142</v>
+        <v>1329</v>
       </c>
       <c r="F122" s="7" t="s">
         <v>13</v>
@@ -3860,30 +3860,33 @@
         <v>219</v>
       </c>
       <c r="B123" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C123" t="s">
         <v>228</v>
       </c>
-      <c r="D123" s="7">
-        <v>1329</v>
+      <c r="D123" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>13</v>
+        <v>258</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>219</v>
+        <v>154</v>
       </c>
       <c r="B124" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C124" t="s">
         <v>228</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>133</v>
+        <v>260</v>
       </c>
       <c r="E124" s="7" t="s">
         <v>10</v>
@@ -3897,13 +3900,13 @@
         <v>154</v>
       </c>
       <c r="B125" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C125" t="s">
-        <v>228</v>
+        <v>262</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>260</v>
+        <v>122</v>
       </c>
       <c r="E125" s="7" t="s">
         <v>10</v>
@@ -3914,16 +3917,16 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>154</v>
+        <v>207</v>
       </c>
       <c r="B126" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C126" t="s">
-        <v>262</v>
+        <v>228</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="E126" s="7" t="s">
         <v>10</v>
@@ -3937,13 +3940,13 @@
         <v>207</v>
       </c>
       <c r="B127" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C127" t="s">
         <v>228</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="E127" s="7" t="s">
         <v>10</v>
@@ -3954,13 +3957,13 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>207</v>
+        <v>100</v>
       </c>
       <c r="B128" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C128" t="s">
-        <v>228</v>
+        <v>266</v>
       </c>
       <c r="D128" s="7" t="s">
         <v>11</v>
@@ -3974,16 +3977,16 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>100</v>
+        <v>267</v>
       </c>
       <c r="B129" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C129" t="s">
         <v>266</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="E129" s="7" t="s">
         <v>10</v>
@@ -3994,16 +3997,16 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>267</v>
+        <v>35</v>
       </c>
       <c r="B130" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C130" t="s">
         <v>266</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="E130" s="7" t="s">
         <v>10</v>
@@ -4017,7 +4020,7 @@
         <v>35</v>
       </c>
       <c r="B131" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C131" t="s">
         <v>266</v>
@@ -4034,16 +4037,16 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="B132" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C132" t="s">
         <v>266</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="E132" s="7" t="s">
         <v>10</v>
@@ -4057,13 +4060,13 @@
         <v>83</v>
       </c>
       <c r="B133" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C133" t="s">
         <v>266</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="E133" s="7" t="s">
         <v>10</v>
@@ -4077,13 +4080,13 @@
         <v>83</v>
       </c>
       <c r="B134" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C134" t="s">
         <v>266</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>137</v>
+        <v>274</v>
       </c>
       <c r="E134" s="7" t="s">
         <v>10</v>
@@ -4097,13 +4100,13 @@
         <v>83</v>
       </c>
       <c r="B135" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C135" t="s">
         <v>266</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>274</v>
+        <v>121</v>
       </c>
       <c r="E135" s="7" t="s">
         <v>10</v>
@@ -4117,13 +4120,13 @@
         <v>83</v>
       </c>
       <c r="B136" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C136" t="s">
         <v>266</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="E136" s="7" t="s">
         <v>10</v>
@@ -4137,13 +4140,13 @@
         <v>83</v>
       </c>
       <c r="B137" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C137" t="s">
-        <v>266</v>
+        <v>9</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>132</v>
+        <v>236</v>
       </c>
       <c r="E137" s="7" t="s">
         <v>10</v>
@@ -4154,48 +4157,28 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="B138" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>266</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>236</v>
+        <v>81</v>
       </c>
       <c r="E138" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>164</v>
-      </c>
-      <c r="B139" t="s">
-        <v>278</v>
-      </c>
-      <c r="C139" t="s">
-        <v>266</v>
-      </c>
-      <c r="D139" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E139" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F139" s="7" t="s">
         <v>258</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A124:E137 A1:C1 A139:E139 A138:B138 D138:E138 A2:C94 A96:C123" numberStoredAsText="1"/>
+    <ignoredError sqref="A123:E136 A1:C1 A138:E138 A137:B137 D137:E137 A2:C94 A95:C122" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -4205,7 +4188,7 @@
   <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/kadastro_veri.xlsx
+++ b/kadastro_veri.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tk44142\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D603B4DD-6D6D-413A-9BCB-784A1D111CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE21F67-6B5E-4418-9AD6-9D5C3AA6E85F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DEVAM EDEN" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="268">
   <si>
     <t>İLÇE</t>
   </si>
@@ -847,7 +847,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -856,50 +856,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="162"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="162"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="162"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="162"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -911,12 +879,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -927,27 +893,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="İyi" xfId="1" builtinId="26"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Sayfa1" xfId="2" xr:uid="{3F564DA4-B7C0-4128-82D7-34672DBCFB32}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1286,8 +1234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="E95" sqref="E95"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A23:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3988,10 +3936,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A468857-99C7-4553-B78B-5E252CFBAEB1}">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4000,9 +3948,10 @@
     <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4015,12 +3964,15 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>218</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -4029,12 +3981,15 @@
       <c r="D2" s="1">
         <v>400</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>219</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -4043,12 +3998,15 @@
       <c r="D3" s="1">
         <v>477</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
         <v>220</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -4057,12 +4015,15 @@
       <c r="D4" s="1">
         <v>396</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s">
         <v>221</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -4071,12 +4032,15 @@
       <c r="D5" s="1">
         <v>666</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" t="s">
         <v>222</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -4085,12 +4049,15 @@
       <c r="D6" s="1">
         <v>388</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="E6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" t="s">
         <v>223</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -4099,12 +4066,15 @@
       <c r="D7" s="1">
         <v>374</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="E7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" t="s">
         <v>224</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -4113,12 +4083,15 @@
       <c r="D8" s="1">
         <v>2977</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="E8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" t="s">
         <v>225</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -4127,12 +4100,15 @@
       <c r="D9" s="1">
         <v>2790</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="E9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" t="s">
         <v>226</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -4141,12 +4117,15 @@
       <c r="D10" s="1">
         <v>703</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="E10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" t="s">
         <v>227</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -4155,12 +4134,15 @@
       <c r="D11" s="1">
         <v>897</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="E11" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" t="s">
         <v>228</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -4169,12 +4151,15 @@
       <c r="D12" s="1">
         <v>1330</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="E12" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" t="s">
         <v>229</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -4183,12 +4168,15 @@
       <c r="D13" s="1">
         <v>605</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="E13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" t="s">
         <v>230</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -4197,12 +4185,15 @@
       <c r="D14" s="1">
         <v>614</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="E14" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" t="s">
         <v>231</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -4211,12 +4202,15 @@
       <c r="D15" s="1">
         <v>624</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="E15" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" t="s">
         <v>232</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -4225,12 +4219,15 @@
       <c r="D16" s="1">
         <v>1107</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="E16" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" t="s">
         <v>233</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -4239,12 +4236,15 @@
       <c r="D17" s="1">
         <v>1166</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="E17" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" t="s">
         <v>234</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -4253,12 +4253,15 @@
       <c r="D18" s="1">
         <v>640</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="E18" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" t="s">
         <v>235</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -4267,12 +4270,15 @@
       <c r="D19" s="1">
         <v>735</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="E19" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" t="s">
         <v>236</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -4281,12 +4287,15 @@
       <c r="D20" s="1">
         <v>334</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="E20" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" t="s">
         <v>237</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -4295,12 +4304,15 @@
       <c r="D21" s="1">
         <v>633</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="E21" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" t="s">
         <v>238</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -4309,12 +4321,15 @@
       <c r="D22" s="1">
         <v>350</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="E22" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" t="s">
         <v>239</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -4323,12 +4338,15 @@
       <c r="D23" s="1">
         <v>876</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="E23" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>267</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" t="s">
         <v>240</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -4337,12 +4355,15 @@
       <c r="D24" s="1">
         <v>1343</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="E24" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" t="s">
         <v>241</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -4351,12 +4372,15 @@
       <c r="D25" s="1">
         <v>517</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="E25" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" t="s">
         <v>242</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -4365,12 +4389,15 @@
       <c r="D26" s="1">
         <v>1126</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="E26" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" t="s">
         <v>243</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -4379,12 +4406,15 @@
       <c r="D27" s="1">
         <v>2273</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="E27" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" t="s">
         <v>244</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -4393,12 +4423,15 @@
       <c r="D28" s="1">
         <v>1068</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="E28" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" t="s">
         <v>245</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -4407,12 +4440,15 @@
       <c r="D29" s="1">
         <v>311</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="E29" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" t="s">
         <v>246</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -4421,12 +4457,15 @@
       <c r="D30" s="1">
         <v>488</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="E30" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" t="s">
         <v>247</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -4435,12 +4474,15 @@
       <c r="D31" s="1">
         <v>771</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="E31" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" t="s">
         <v>248</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -4449,12 +4491,15 @@
       <c r="D32" s="1">
         <v>2167</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="E32" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" t="s">
         <v>249</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -4463,12 +4508,15 @@
       <c r="D33" s="1">
         <v>124</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="E33" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" t="s">
         <v>250</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -4477,12 +4525,15 @@
       <c r="D34" s="1">
         <v>1354</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+      <c r="E34" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>59</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" t="s">
         <v>251</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -4491,12 +4542,15 @@
       <c r="D35" s="1">
         <v>2099</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="E35" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>59</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" t="s">
         <v>252</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -4505,12 +4559,15 @@
       <c r="D36" s="1">
         <v>3092</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="E36" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>59</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" t="s">
         <v>253</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -4519,12 +4576,15 @@
       <c r="D37" s="1">
         <v>3647</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+      <c r="E37" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>28</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" t="s">
         <v>254</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -4533,12 +4593,15 @@
       <c r="D38" s="1">
         <v>1628</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+      <c r="E38" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" t="s">
         <v>255</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -4547,12 +4610,15 @@
       <c r="D39" s="1">
         <v>641</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+      <c r="E39" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" t="s">
         <v>256</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -4561,12 +4627,15 @@
       <c r="D40" s="1">
         <v>1545</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+      <c r="E40" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>28</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" t="s">
         <v>257</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -4575,12 +4644,15 @@
       <c r="D41" s="1">
         <v>529</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+      <c r="E41" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>28</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" t="s">
         <v>258</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -4589,12 +4661,15 @@
       <c r="D42" s="1">
         <v>1184</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+      <c r="E42" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" t="s">
         <v>259</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -4603,12 +4678,15 @@
       <c r="D43" s="1">
         <v>334</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+      <c r="E43" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>28</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" t="s">
         <v>260</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -4617,12 +4695,15 @@
       <c r="D44" s="1">
         <v>487</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+      <c r="E44" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>28</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" t="s">
         <v>261</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -4631,12 +4712,15 @@
       <c r="D45" s="1">
         <v>2019</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+      <c r="E45" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>28</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" t="s">
         <v>33</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -4645,12 +4729,15 @@
       <c r="D46" s="1">
         <v>1215</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+      <c r="E46" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>28</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" t="s">
         <v>262</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -4659,12 +4746,15 @@
       <c r="D47" s="1">
         <v>5107</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
+      <c r="E47" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>28</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" t="s">
         <v>41</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -4673,12 +4763,15 @@
       <c r="D48" s="1">
         <v>1856</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
+      <c r="E48" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>28</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" t="s">
         <v>263</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -4687,12 +4780,15 @@
       <c r="D49" s="1">
         <v>2164</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
+      <c r="E49" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" t="s">
         <v>43</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -4701,12 +4797,15 @@
       <c r="D50" s="1">
         <v>2500</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+      <c r="E50" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>28</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" t="s">
         <v>264</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -4715,12 +4814,15 @@
       <c r="D51" s="1">
         <v>287</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
+      <c r="E51" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>28</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" t="s">
         <v>51</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -4729,12 +4831,15 @@
       <c r="D52" s="1">
         <v>728</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
+      <c r="E52" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>28</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" t="s">
         <v>265</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -4743,12 +4848,15 @@
       <c r="D53" s="1">
         <v>1057</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
+      <c r="E53" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>28</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" t="s">
         <v>266</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -4757,12 +4865,15 @@
       <c r="D54" s="1">
         <v>1197</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
+      <c r="E54" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>28</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" t="s">
         <v>55</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -4770,6 +4881,9 @@
       </c>
       <c r="D55" s="1">
         <v>2477</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
